--- a/Edge_detection/labo05_profiling.xlsx
+++ b/Edge_detection/labo05_profiling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\S1\T-EmbHardw\Edge_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E76E9D-5F5B-4D10-B414-1E5C92E73425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7749364-88F7-42E5-9DBA-45BDA957983A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve"> -O1</t>
   </si>
@@ -186,6 +186,48 @@
   </si>
   <si>
     <t>sec / inst</t>
+  </si>
+  <si>
+    <t>sobel_complet     (time [s])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 * 384 = 196 608 </t>
+  </si>
+  <si>
+    <t>(16 bits)</t>
+  </si>
+  <si>
+    <t>196 608 / 2 = 98 304</t>
+  </si>
+  <si>
+    <t>98304 / 1024 = 96</t>
+  </si>
+  <si>
+    <t>94/4 = 24</t>
+  </si>
+  <si>
+    <t>sobel_x_y</t>
+  </si>
+  <si>
+    <t>sobel_res</t>
+  </si>
+  <si>
+    <t>(8 bits)</t>
+  </si>
+  <si>
+    <t>Reverse write cache / main</t>
+  </si>
+  <si>
+    <t>64Kb =&gt; no possible</t>
+  </si>
+  <si>
+    <t>Dcache = 32KB</t>
+  </si>
+  <si>
+    <t>32KB =&gt; ok</t>
+  </si>
+  <si>
+    <t>Dcache = 16KB</t>
   </si>
 </sst>
 </file>
@@ -235,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -552,11 +594,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -624,30 +701,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,13 +773,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,7 +1127,7 @@
       <c r="V2" s="17"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1040,43 +1138,43 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="4:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="4:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="11">
@@ -1117,7 +1215,7 @@
       </c>
     </row>
     <row r="10" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="39"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="19">
         <v>0.82</v>
       </c>
@@ -1156,7 +1254,7 @@
       </c>
     </row>
     <row r="11" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="42" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="20">
@@ -1168,16 +1266,16 @@
       <c r="G11" s="3">
         <v>28779259</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="40">
         <v>37592632</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="33">
         <v>44721188</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="33">
         <v>43249907</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="33">
         <v>43249907</v>
       </c>
       <c r="N11">
@@ -1197,7 +1295,7 @@
       </c>
     </row>
     <row r="12" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="39"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="19">
         <v>2.5249999999999999</v>
       </c>
@@ -1207,10 +1305,10 @@
       <c r="G12" s="4">
         <v>0.57599999999999996</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
       <c r="N12">
         <v>14.443</v>
       </c>
@@ -1228,7 +1326,7 @@
       </c>
     </row>
     <row r="13" spans="4:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="20">
@@ -1240,12 +1338,12 @@
       <c r="G13" s="3">
         <v>26495106</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="39">
         <v>0.752</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
       <c r="N13">
         <v>722357147</v>
       </c>
@@ -1260,7 +1358,7 @@
       </c>
     </row>
     <row r="14" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="39"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="19">
         <v>2.5310000000000001</v>
       </c>
@@ -1270,7 +1368,7 @@
       <c r="G14" s="4">
         <v>0.53</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="30">
         <v>0.89400000000000002</v>
       </c>
@@ -1294,7 +1392,7 @@
       </c>
     </row>
     <row r="15" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="20">
@@ -1329,7 +1427,7 @@
       </c>
     </row>
     <row r="16" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="36"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="22">
         <v>0.65400000000000003</v>
       </c>
@@ -1362,7 +1460,7 @@
       </c>
     </row>
     <row r="17" spans="4:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="18">
@@ -1381,15 +1479,15 @@
         <f>SUM(H9,H11,H15)</f>
         <v>90167286</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="25">
         <f>SUM(I9,I11)</f>
         <v>89193198</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="25">
         <f>SUM(J9,J11)</f>
         <v>65354277</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="25">
         <f>SUM(K9,K11)</f>
         <v>57120869</v>
       </c>
@@ -1415,7 +1513,7 @@
       </c>
     </row>
     <row r="18" spans="4:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="36"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="14">
         <f t="shared" si="0"/>
         <v>6.5299999999999994</v>
@@ -1466,61 +1564,67 @@
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <f t="shared" ref="E20:K20" si="7">E17/(512*384)</f>
         <v>1660.7251739501953</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <f t="shared" si="7"/>
         <v>1426.6702219645183</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="24">
         <f t="shared" si="7"/>
         <v>627.82794189453125</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <f t="shared" si="7"/>
         <v>458.61453247070313</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <f t="shared" si="7"/>
         <v>453.66006469726563</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="24">
         <f t="shared" si="7"/>
         <v>332.40904235839844</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="24">
         <f t="shared" si="7"/>
         <v>290.53176371256512</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26">
+      <c r="M20" s="23"/>
+      <c r="N20" s="24">
         <f t="shared" ref="N20:Q20" si="8">N17/(512*384)</f>
         <v>8407.9532521565761</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="24">
         <f t="shared" si="8"/>
         <v>6525.017008463542</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="24">
         <f t="shared" si="8"/>
         <v>5339.3316802978516</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="24">
         <f t="shared" si="8"/>
         <v>5186.2189229329424</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="24">
         <f t="shared" ref="R20" si="9">R17/(512*384)</f>
         <v>5006.3968811035156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I7:I8"/>
@@ -1536,12 +1640,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1550,17 +1648,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44644B9-38D7-4B92-B2FA-FB5B2593DAAB}">
-  <dimension ref="B6:L24"/>
+  <dimension ref="A6:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
@@ -1570,337 +1668,367 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="42"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+      <c r="D7" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="11">
-        <v>41023261</v>
-      </c>
-      <c r="D9" s="12">
-        <v>35440075</v>
-      </c>
-      <c r="E9" s="12">
-        <v>36949267</v>
-      </c>
-      <c r="F9" s="13">
-        <v>22187483</v>
-      </c>
-      <c r="G9" s="13">
-        <v>44472010</v>
-      </c>
-      <c r="H9" s="13">
-        <v>22104370</v>
-      </c>
-      <c r="I9" s="13">
-        <v>13870962</v>
-      </c>
+        <v>14059110</v>
+      </c>
+      <c r="D9" s="11">
+        <v>14143186</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5146110</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5200636</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="19">
-        <v>0.82</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.442</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="20">
-        <v>126245013</v>
-      </c>
-      <c r="D11" s="3">
-        <v>106851659</v>
-      </c>
-      <c r="E11" s="3">
-        <v>28779259</v>
-      </c>
-      <c r="F11" s="38">
-        <v>37592632</v>
-      </c>
-      <c r="G11" s="28">
-        <v>44721188</v>
-      </c>
-      <c r="H11" s="28">
-        <v>43249907</v>
-      </c>
-      <c r="I11" s="28">
-        <v>43249907</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="19">
-        <v>2.5249999999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2.137</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="20">
-        <v>126528413</v>
-      </c>
-      <c r="D13" s="3">
-        <v>106908952</v>
-      </c>
-      <c r="E13" s="3">
-        <v>26495106</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.752</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="19">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="30">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0.86499999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20">
-        <v>32715168</v>
-      </c>
-      <c r="D15" s="3">
-        <v>31294093</v>
-      </c>
-      <c r="E15" s="3">
-        <v>31212364</v>
-      </c>
-      <c r="F15" s="24">
-        <v>30387171</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="36"/>
-      <c r="C16" s="22">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.626</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="35" t="s">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.104</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="53">
+        <v>44403320</v>
+      </c>
+      <c r="D11" s="53">
+        <v>45042498</v>
+      </c>
+      <c r="E11" s="53">
+        <v>11981762</v>
+      </c>
+      <c r="F11" s="53">
+        <v>12066883</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="52"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="52"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="52"/>
+      <c r="C14" s="56">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D14" s="56">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0.24</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="52"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="18">
-        <f t="shared" ref="C17:E18" si="0">SUM(C9,C11,C13,C15)</f>
-        <v>326511855</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+        <f>SUM(C9,C11,)</f>
+        <v>58462430</v>
+      </c>
+      <c r="D17" s="18">
+        <f>SUM(D9,D11,)</f>
+        <v>59185684</v>
+      </c>
+      <c r="E17" s="18">
+        <f>SUM(E9,E11,)</f>
+        <v>17127872</v>
+      </c>
+      <c r="F17" s="18">
+        <f>SUM(F9,F11,)</f>
+        <v>17267519</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="K17" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="26">
         <v>1.9999299999999999E-8</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="36"/>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="38"/>
       <c r="C18" s="14">
+        <f>SUM(C10,C14,)</f>
+        <v>1.169</v>
+      </c>
+      <c r="D18" s="14">
+        <f>SUM(D10,D14,)</f>
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="E18" s="14">
+        <f>SUM(E10,E14,)</f>
+        <v>0.34299999999999997</v>
+      </c>
+      <c r="F18" s="14">
+        <f>SUM(F10,F14,)</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="27">
+        <f>C18/C17</f>
+        <v>1.9995747696426576E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="24">
+        <f>C17</f>
+        <v>58462430</v>
+      </c>
+      <c r="D21" s="24">
+        <f t="shared" ref="D21:E21" si="0">D17</f>
+        <v>59185684</v>
+      </c>
+      <c r="E21" s="24">
         <f t="shared" si="0"/>
-        <v>6.5299999999999994</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="50">
-        <f>C18/C17</f>
-        <v>1.9999273839536392E-8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="26">
-        <f>C17</f>
-        <v>326511855</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+        <v>17127872</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" ref="F21" si="1">F17</f>
+        <v>17267519</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <f>C21/(512*384)</f>
-        <v>1660.7251739501953</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+        <v>297.35529581705731</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" ref="D22:F22" si="2">D21/(512*384)</f>
+        <v>301.03395589192706</v>
+      </c>
+      <c r="E22" s="24">
+        <f t="shared" si="2"/>
+        <v>87.116861979166671</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="2"/>
+        <v>87.827143351236984</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="28">
         <f>L17*C21</f>
-        <v>6.5300085417014992</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+        <v>1.169207676299</v>
+      </c>
+      <c r="D23" s="28">
+        <f>L17*D21</f>
+        <v>1.1836722500212</v>
+      </c>
+      <c r="E23" s="28">
+        <f>$L$17*E21</f>
+        <v>0.3425454504896</v>
+      </c>
+      <c r="F23" s="28">
+        <f>$L$17*F21</f>
+        <v>0.34533829273669997</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="29">
         <f>1/C23</f>
-        <v>0.15313915649786178</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+        <v>0.85528005013223263</v>
+      </c>
+      <c r="D24" s="29">
+        <f t="shared" ref="D24:F24" si="3">1/D23</f>
+        <v>0.84482845651073568</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="3"/>
+        <v>2.9193206290455782</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" si="3"/>
+        <v>2.895711309844347</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="26">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="I11:I13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Edge_detection/labo05_profiling.xlsx
+++ b/Edge_detection/labo05_profiling.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\S1\T-EmbHardw\Edge_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7749364-88F7-42E5-9DBA-45BDA957983A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD332E3F-31C9-4F8A-99A1-63BD027780B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soft_opti" sheetId="1" r:id="rId1"/>
     <sheet name="cache_opti" sheetId="2" r:id="rId2"/>
+    <sheet name="Evolution_opti" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t xml:space="preserve"> -O1</t>
   </si>
@@ -197,15 +198,6 @@
     <t>(16 bits)</t>
   </si>
   <si>
-    <t>196 608 / 2 = 98 304</t>
-  </si>
-  <si>
-    <t>98304 / 1024 = 96</t>
-  </si>
-  <si>
-    <t>94/4 = 24</t>
-  </si>
-  <si>
     <t>sobel_x_y</t>
   </si>
   <si>
@@ -224,10 +216,130 @@
     <t>Dcache = 32KB</t>
   </si>
   <si>
-    <t>32KB =&gt; ok</t>
+    <t>Dcache = 16KB</t>
   </si>
   <si>
-    <t>Dcache = 16KB</t>
+    <t>Dcache = 8KB</t>
+  </si>
+  <si>
+    <t>Dcache = 4KB</t>
+  </si>
+  <si>
+    <t>Dcache = 2KB</t>
+  </si>
+  <si>
+    <t>Dcache = 1KB</t>
+  </si>
+  <si>
+    <t>196 608 * 2 = 393 216 B</t>
+  </si>
+  <si>
+    <t>393 216 / 1024 = 384 KB</t>
+  </si>
+  <si>
+    <t>384/32 = 12</t>
+  </si>
+  <si>
+    <t>384/16 = 24KB</t>
+  </si>
+  <si>
+    <t>Sobel_2 (32KB)</t>
+  </si>
+  <si>
+    <t>Sobel_3 (32KB)</t>
+  </si>
+  <si>
+    <t>Gray_sobel  (32KB)</t>
+  </si>
+  <si>
+    <t>read pixel from main mem</t>
+  </si>
+  <si>
+    <t>read pixel from cache</t>
+  </si>
+  <si>
+    <t>only visible  (32KB)</t>
+  </si>
+  <si>
+    <t>only visible + 8x8 (32KB)</t>
+  </si>
+  <si>
+    <t>with gray best (32KB)</t>
+  </si>
+  <si>
+    <t>Mhz</t>
+  </si>
+  <si>
+    <t>sec/inst</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>sobel_complet</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>32KB</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Div 16</t>
+  </si>
+  <si>
+    <t>Only visible</t>
+  </si>
+  <si>
+    <t>Div 64 + only visible</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>with gray best</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Time only grayscale CI</t>
+  </si>
+  <si>
+    <t>Time only grayscale base</t>
+  </si>
+  <si>
+    <t>Time only grayscale sol 1</t>
+  </si>
+  <si>
+    <t>CI grayscale</t>
+  </si>
+  <si>
+    <t>CI +threshold</t>
+  </si>
+  <si>
+    <t>unrolling loop</t>
+  </si>
+  <si>
+    <t>modif. conv_gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cache (32KB)</t>
+  </si>
+  <si>
+    <t>384/64 = 6KB</t>
   </si>
 </sst>
 </file>
@@ -237,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +380,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -629,11 +747,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -710,6 +837,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,12 +893,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,9 +944,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -797,11 +973,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,6 +994,4264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1800" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Optimisation en O0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cycles / pixel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$D$14,Evolution_opti!$H$14,Evolution_opti!$I$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>unrolling loop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sobel_complet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$D$16,Evolution_opti!$H$16,Evolution_opti!$I$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8407.9532521565761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5339.3316802978516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5006.3968811035156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC96-4D52-8F57-774D553F160C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="410885968"/>
+        <c:axId val="410887280"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Image / sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$D$14,Evolution_opti!$H$14,Evolution_opti!$I$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>unrolling loop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sobel_complet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$D$18,Evolution_opti!$H$18,Evolution_opti!$I$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0246737037511153E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7630146667996462E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0797640914479525E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC96-4D52-8F57-774D553F160C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="410881048"/>
+        <c:axId val="410874816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="410885968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410887280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410887280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410885968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410874816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410881048"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="410881048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="410874816"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Optimisation du compilateur</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cycles / pixel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$I$12,Evolution_opti!$E$12,Evolution_opti!$F$12,Evolution_opti!$J$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v> -O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> -O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> -O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> -O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$I$16,Evolution_opti!$E$16,Evolution_opti!$F$16,Evolution_opti!$J$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5006.3968811035156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1660.7251739501953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1426.6702219645183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>453.66006469726563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DE6-4186-BB09-E673E5D422F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="415108416"/>
+        <c:axId val="415108088"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Image / sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$D$12,Evolution_opti!$E$12,Evolution_opti!$F$12,Evolution_opti!$G$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v> -O0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> -O1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> -O2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> -O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$I$18,Evolution_opti!$E$18,Evolution_opti!$F$18,Evolution_opti!$J$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0797640914479525E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15313379662738433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17825643735065744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56058086402507956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DE6-4186-BB09-E673E5D422F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="415113664"/>
+        <c:axId val="415113336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415108416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415108088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415108088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415108416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415113336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415113664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="415113664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415113336"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Optimisation avancées</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cycles / pixel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$J$14,Evolution_opti!$K$14,Evolution_opti!$L$14,Evolution_opti!$O$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sobel_complet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>modif. conv_gray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Cache (32KB)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Div 64 + only visible</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$J$16,Evolution_opti!$K$16,Evolution_opti!$L$16,Evolution_opti!$O$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>453.66006469726563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.53176371256512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.116861979166671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.102996826171875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB59-4307-BD0C-C8833057B812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="319222576"/>
+        <c:axId val="319224872"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Image / sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$J$14,Evolution_opti!$K$14,Evolution_opti!$L$14,Evolution_opti!$O$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>sobel_complet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>modif. conv_gray</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Cache (32KB)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Div 64 + only visible</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$J$18,Evolution_opti!$K$18,Evolution_opti!$L$18,Evolution_opti!$O$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.56058086402507956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87533682304448135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9192184528235616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8542482493564538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB59-4307-BD0C-C8833057B812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="319229136"/>
+        <c:axId val="319229464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="319222576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319224872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="319224872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319222576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="319229464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319229136"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="319229136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="319229464"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Optimisation finales</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cycles / pixel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$O$14,Evolution_opti!$P$14,Evolution_opti!$Q$14,Evolution_opti!$R$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Div 64 + only visible</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>with gray best</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CI grayscale</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CI +threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$O$16,Evolution_opti!$P$16,Evolution_opti!$Q$16,Evolution_opti!$R$16)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.102996826171875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.656005859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.897384643554688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.790730794270832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B78-4CF5-B612-C8CA76469B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="525724112"/>
+        <c:axId val="525724768"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Image / sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Evolution_opti!$O$14,Evolution_opti!$P$14,Evolution_opti!$Q$14,Evolution_opti!$R$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Div 64 + only visible</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>with gray best</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CI grayscale</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CI +threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Evolution_opti!$O$18,Evolution_opti!$P$18,Evolution_opti!$Q$18,Evolution_opti!$R$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8542482493564538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5519099310535185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8924438276166722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9996006599350569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B78-4CF5-B612-C8CA76469B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="525717224"/>
+        <c:axId val="525718536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="525724112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525724768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="525724768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525724112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525718536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525717224"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="525717224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="525718536"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237564</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588084</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A7A767-5F5C-46D1-BABE-466003508E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155251</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>777891</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>72533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925431B2-995D-405C-B451-AE6E8873346D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431202</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>248322</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887B4E61-5667-4B91-A0F7-8EB1628A4C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA10D931-7385-4F7E-AFC3-2E199680CB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1083,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:V20"/>
+  <dimension ref="D2:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:K20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,6 +5561,9 @@
       <c r="V2" s="17"/>
     </row>
     <row r="3" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D3" s="26">
+        <v>1.9999299999999999E-8</v>
+      </c>
       <c r="M3" s="23" t="s">
         <v>3</v>
       </c>
@@ -1138,43 +5575,43 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="4:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="4:22" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="44"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="52" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="11">
@@ -1215,7 +5652,7 @@
       </c>
     </row>
     <row r="10" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="41"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="19">
         <v>0.82</v>
       </c>
@@ -1254,7 +5691,7 @@
       </c>
     </row>
     <row r="11" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="57" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="20">
@@ -1266,16 +5703,16 @@
       <c r="G11" s="3">
         <v>28779259</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="55">
         <v>37592632</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="45">
         <v>44721188</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="45">
         <v>43249907</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="45">
         <v>43249907</v>
       </c>
       <c r="N11">
@@ -1295,7 +5732,7 @@
       </c>
     </row>
     <row r="12" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="41"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="19">
         <v>2.5249999999999999</v>
       </c>
@@ -1305,10 +5742,10 @@
       <c r="G12" s="4">
         <v>0.57599999999999996</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
       <c r="N12">
         <v>14.443</v>
       </c>
@@ -1326,7 +5763,7 @@
       </c>
     </row>
     <row r="13" spans="4:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="20">
@@ -1338,12 +5775,12 @@
       <c r="G13" s="3">
         <v>26495106</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="54">
         <v>0.752</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="N13">
         <v>722357147</v>
       </c>
@@ -1358,7 +5795,7 @@
       </c>
     </row>
     <row r="14" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="41"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="19">
         <v>2.5310000000000001</v>
       </c>
@@ -1368,14 +5805,14 @@
       <c r="G14" s="4">
         <v>0.53</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="30">
+      <c r="H14" s="54"/>
+      <c r="I14" s="47">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="47">
         <v>0.86499999999999999</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="47">
         <v>0.86499999999999999</v>
       </c>
       <c r="N14">
@@ -1392,7 +5829,7 @@
       </c>
     </row>
     <row r="15" spans="4:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="57" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="20">
@@ -1407,9 +5844,9 @@
       <c r="H15" s="5">
         <v>30387171</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
       <c r="N15">
         <v>102964801</v>
       </c>
@@ -1427,7 +5864,7 @@
       </c>
     </row>
     <row r="16" spans="4:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="38"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="22">
         <v>0.65400000000000003</v>
       </c>
@@ -1440,9 +5877,9 @@
       <c r="H16" s="8">
         <v>0.60799999999999998</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
       <c r="N16">
         <v>2.0590000000000002</v>
       </c>
@@ -1460,7 +5897,7 @@
       </c>
     </row>
     <row r="17" spans="4:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="18">
@@ -1491,6 +5928,7 @@
         <f>SUM(K9,K11)</f>
         <v>57120869</v>
       </c>
+      <c r="M17" s="13"/>
       <c r="N17" s="13">
         <f t="shared" ref="N17:O17" si="1">SUM(N9,N11,N13,N15)</f>
         <v>1653070873</v>
@@ -1513,7 +5951,7 @@
       </c>
     </row>
     <row r="18" spans="4:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="38"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="14">
         <f t="shared" si="0"/>
         <v>6.5299999999999994</v>
@@ -1617,14 +6055,118 @@
         <v>5006.3968811035156</v>
       </c>
     </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="28">
+        <f>$D$3*E17</f>
+        <v>6.5300085417014992</v>
+      </c>
+      <c r="F21" s="28">
+        <f>$D$3*F17</f>
+        <v>5.6096992336547</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" ref="G21:R21" si="10">$D$3*G17</f>
+        <v>2.4686335148028</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="10"/>
+        <v>1.8032826028997999</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="10"/>
+        <v>1.7838015247613999</v>
+      </c>
+      <c r="J21" s="28">
+        <f t="shared" si="10"/>
+        <v>1.3070397920060999</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="10"/>
+        <v>1.1423773953917</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28">
+        <f t="shared" si="10"/>
+        <v>33.060260310388898</v>
+      </c>
+      <c r="O21" s="28">
+        <f t="shared" si="10"/>
+        <v>25.656512870619199</v>
+      </c>
+      <c r="P21" s="28">
+        <f t="shared" si="10"/>
+        <v>20.9943716312739</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" si="10"/>
+        <v>20.392328843508999</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" si="10"/>
+        <v>19.685264551625398</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="29">
+        <f>1/E21</f>
+        <v>0.15313915649786178</v>
+      </c>
+      <c r="F22" s="29">
+        <f>1/F21</f>
+        <v>0.17826267654433647</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" ref="G22:R22" si="11">1/G21</f>
+        <v>0.4050824044977297</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="11"/>
+        <v>0.55454425079681502</v>
+      </c>
+      <c r="I22" s="29">
+        <f t="shared" si="11"/>
+        <v>0.56060048504205606</v>
+      </c>
+      <c r="J22" s="29">
+        <f t="shared" si="11"/>
+        <v>0.76508764776408056</v>
+      </c>
+      <c r="K22" s="29">
+        <f t="shared" si="11"/>
+        <v>0.87536746090561302</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29">
+        <f t="shared" si="11"/>
+        <v>3.0247795710361021E-2</v>
+      </c>
+      <c r="O22" s="29">
+        <f t="shared" si="11"/>
+        <v>3.8976458143115761E-2</v>
+      </c>
+      <c r="P22" s="29">
+        <f t="shared" si="11"/>
+        <v>4.7631813781478814E-2</v>
+      </c>
+      <c r="Q22" s="29">
+        <f t="shared" si="11"/>
+        <v>4.9038047967645736E-2</v>
+      </c>
+      <c r="R22" s="29">
+        <f t="shared" si="11"/>
+        <v>5.079941889414083E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I7:I8"/>
@@ -1640,6 +6182,12 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1648,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44644B9-38D7-4B92-B2FA-FB5B2593DAAB}">
-  <dimension ref="A6:M30"/>
+  <dimension ref="A4:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1662,44 +6210,119 @@
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1.9999299999999999E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77"/>
+      <c r="B5" s="27">
+        <f>C18/C17</f>
+        <v>1.9995747696426576E-8</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="G7" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="I7" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="K7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="68" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="44"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+    <row r="8" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
     </row>
-    <row r="9" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="11">
@@ -1714,12 +6337,42 @@
       <c r="F9" s="11">
         <v>5200636</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="11">
+        <v>5467616</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5682706</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6018719</v>
+      </c>
+      <c r="J9" s="11">
+        <v>6986879</v>
+      </c>
+      <c r="K9" s="11">
+        <v>5237668</v>
+      </c>
+      <c r="L9" s="11">
+        <v>5133728</v>
+      </c>
+      <c r="M9" s="11">
+        <v>16900625</v>
+      </c>
+      <c r="N9" s="11">
+        <v>20379891</v>
+      </c>
+      <c r="O9" s="11">
+        <v>8185165</v>
+      </c>
+      <c r="P9" s="11">
+        <v>6984911</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>19593168</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
+    <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="56"/>
       <c r="C10" s="19">
         <v>0.28100000000000003</v>
       </c>
@@ -1732,146 +6385,323 @@
       <c r="F10" s="19">
         <v>0.104</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="19">
+        <v>0.109</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.114</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.105</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0.39200000000000002</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="70">
         <v>44403320</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="70">
         <v>45042498</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="70">
         <v>11981762</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="70">
         <v>12066883</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="G11" s="70">
+        <v>12251381</v>
+      </c>
+      <c r="H11" s="70">
+        <v>12493836</v>
+      </c>
+      <c r="I11" s="70">
+        <v>13004573</v>
+      </c>
+      <c r="J11" s="70">
+        <v>29626738</v>
+      </c>
+      <c r="K11" s="70">
+        <v>14558273</v>
+      </c>
+      <c r="L11" s="70">
+        <v>14689013</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
     </row>
-    <row r="12" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+    <row r="12" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="76"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71">
+        <v>14689013</v>
+      </c>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
     </row>
-    <row r="13" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+    <row r="13" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="76"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
     </row>
-    <row r="14" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
-      <c r="C14" s="56">
+    <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="76"/>
+      <c r="C14" s="73">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="73">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="73">
         <v>0.24</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="73">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+      <c r="G14" s="73">
+        <v>0.245</v>
+      </c>
+      <c r="H14" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="73">
+        <v>0.26</v>
+      </c>
+      <c r="J14" s="73">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="K14" s="73">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L14" s="73">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
     </row>
-    <row r="15" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+    <row r="15" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
     </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="38"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+    <row r="16" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="53"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="18">
-        <f>SUM(C9,C11,)</f>
+        <f t="shared" ref="C17:J17" si="0">SUM(C9,C11,)</f>
         <v>58462430</v>
       </c>
       <c r="D17" s="18">
-        <f>SUM(D9,D11,)</f>
+        <f t="shared" si="0"/>
         <v>59185684</v>
       </c>
       <c r="E17" s="18">
-        <f>SUM(E9,E11,)</f>
+        <f t="shared" si="0"/>
         <v>17127872</v>
       </c>
       <c r="F17" s="18">
-        <f>SUM(F9,F11,)</f>
+        <f t="shared" si="0"/>
         <v>17267519</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="K17" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="26">
-        <v>1.9999299999999999E-8</v>
+      <c r="G17" s="30">
+        <f t="shared" si="0"/>
+        <v>17718997</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" si="0"/>
+        <v>18176542</v>
+      </c>
+      <c r="I17" s="30">
+        <f t="shared" si="0"/>
+        <v>19023292</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" si="0"/>
+        <v>36613617</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" ref="K17:L17" si="1">SUM(K9,K11,)</f>
+        <v>19795941</v>
+      </c>
+      <c r="L17" s="31">
+        <f t="shared" si="1"/>
+        <v>19822741</v>
+      </c>
+      <c r="M17" s="31">
+        <f>SUM(M9,M11,)</f>
+        <v>16900625</v>
+      </c>
+      <c r="N17" s="31">
+        <f>SUM(N9,N11,)</f>
+        <v>20379891</v>
+      </c>
+      <c r="O17" s="31">
+        <f>SUM(O9,O11,)</f>
+        <v>8185165</v>
+      </c>
+      <c r="P17" s="31">
+        <f>SUM(P9,P11,)</f>
+        <v>6984911</v>
+      </c>
+      <c r="Q17" s="31">
+        <f>SUM(Q9,Q11,)</f>
+        <v>19593168</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="38"/>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="53"/>
       <c r="C18" s="14">
-        <f>SUM(C10,C14,)</f>
+        <f t="shared" ref="C18:J18" si="2">SUM(C10,C14,)</f>
         <v>1.169</v>
       </c>
       <c r="D18" s="14">
-        <f>SUM(D10,D14,)</f>
+        <f t="shared" si="2"/>
         <v>1.1839999999999999</v>
       </c>
       <c r="E18" s="14">
-        <f>SUM(E10,E14,)</f>
+        <f t="shared" si="2"/>
         <v>0.34299999999999997</v>
       </c>
       <c r="F18" s="14">
-        <f>SUM(F10,F14,)</f>
+        <f t="shared" si="2"/>
         <v>0.34499999999999997</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="27">
-        <f>C18/C17</f>
-        <v>1.9995747696426576E-8</v>
+      <c r="G18" s="14">
+        <f t="shared" si="2"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="2"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18:L18" si="3">SUM(K10,K14,)</f>
+        <v>0.39599999999999996</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>0.39699999999999996</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" ref="M18:N18" si="4">SUM(M10,M14,)</f>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="N18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" ref="O18:P18" si="5">SUM(O10,O14,)</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P18" s="14">
+        <f t="shared" si="5"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" ref="Q18" si="6">SUM(Q10,Q14,)</f>
+        <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
         <v>25</v>
       </c>
@@ -1880,22 +6710,63 @@
         <v>58462430</v>
       </c>
       <c r="D21" s="24">
-        <f t="shared" ref="D21:E21" si="0">D17</f>
+        <f t="shared" ref="D21:E21" si="7">D17</f>
         <v>59185684</v>
       </c>
       <c r="E21" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>17127872</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" ref="F21" si="1">F17</f>
+        <f t="shared" ref="F21:G21" si="8">F17</f>
         <v>17267519</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="G21" s="24">
+        <f t="shared" si="8"/>
+        <v>17718997</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" ref="H21:I21" si="9">H17</f>
+        <v>18176542</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="9"/>
+        <v>19023292</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" ref="J21" si="10">J17</f>
+        <v>36613617</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" ref="K21:L21" si="11">K17</f>
+        <v>19795941</v>
+      </c>
+      <c r="L21" s="24">
+        <f t="shared" si="11"/>
+        <v>19822741</v>
+      </c>
+      <c r="M21" s="24">
+        <f t="shared" ref="M21:N21" si="12">M17</f>
+        <v>16900625</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="12"/>
+        <v>20379891</v>
+      </c>
+      <c r="O21" s="24">
+        <f t="shared" ref="O21:P21" si="13">O17</f>
+        <v>8185165</v>
+      </c>
+      <c r="P21" s="24">
+        <f t="shared" si="13"/>
+        <v>6984911</v>
+      </c>
+      <c r="Q21" s="24">
+        <f t="shared" ref="Q21" si="14">Q17</f>
+        <v>19593168</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
@@ -1904,46 +6775,128 @@
         <v>297.35529581705731</v>
       </c>
       <c r="D22" s="24">
-        <f t="shared" ref="D22:F22" si="2">D21/(512*384)</f>
+        <f t="shared" ref="D22:F22" si="15">D21/(512*384)</f>
         <v>301.03395589192706</v>
       </c>
       <c r="E22" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>87.116861979166671</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>87.827143351236984</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="G22" s="24">
+        <f t="shared" ref="G22:H22" si="16">G21/(512*384)</f>
+        <v>90.123479207356766</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="16"/>
+        <v>92.450673421223954</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" ref="I22" si="17">I21/(512*384)</f>
+        <v>96.757466634114579</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" ref="J22" si="18">J21/(512*384)</f>
+        <v>186.22648620605469</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" ref="K22:L22" si="19">K21/(512*384)</f>
+        <v>100.68736267089844</v>
+      </c>
+      <c r="L22" s="24">
+        <f t="shared" si="19"/>
+        <v>100.82367451985677</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" ref="M22:N22" si="20">M21/(512*384)</f>
+        <v>85.961023966471359</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="20"/>
+        <v>103.65748596191406</v>
+      </c>
+      <c r="O22" s="24">
+        <f t="shared" ref="O22:P22" si="21">O21/(512*384)</f>
+        <v>41.631902058919273</v>
+      </c>
+      <c r="P22" s="24">
+        <f t="shared" si="21"/>
+        <v>35.527094523111977</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" ref="Q22" si="22">Q21/(512*384)</f>
+        <v>99.656005859375</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="28">
-        <f>L17*C21</f>
+        <f>B4*C21</f>
         <v>1.169207676299</v>
       </c>
       <c r="D23" s="28">
-        <f>L17*D21</f>
+        <f>B4*D21</f>
         <v>1.1836722500212</v>
       </c>
       <c r="E23" s="28">
-        <f>$L$17*E21</f>
+        <f t="shared" ref="E23:K23" si="23">$B$4*E21</f>
         <v>0.3425454504896</v>
       </c>
       <c r="F23" s="28">
-        <f>$L$17*F21</f>
+        <f t="shared" si="23"/>
         <v>0.34533829273669997</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="28">
+        <f t="shared" si="23"/>
+        <v>0.35436753670209997</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="23"/>
+        <v>0.3635181164206</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="23"/>
+        <v>0.38045252369559995</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="23"/>
+        <v>0.73224671046809997</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="23"/>
+        <v>0.3959049628413</v>
+      </c>
+      <c r="L23" s="28">
+        <f t="shared" ref="L23:M23" si="24">$B$4*L21</f>
+        <v>0.39644094408129998</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" si="24"/>
+        <v>0.33800066956249997</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" ref="N23:O23" si="25">$B$4*N21</f>
+        <v>0.40758355407629998</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="25"/>
+        <v>0.1636975703845</v>
+      </c>
+      <c r="P23" s="28">
+        <f t="shared" ref="P23:Q23" si="26">$B$4*P21</f>
+        <v>0.13969333056229999</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="26"/>
+        <v>0.39184964478239998</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
@@ -1952,24 +6905,65 @@
         <v>0.85528005013223263</v>
       </c>
       <c r="D24" s="29">
-        <f t="shared" ref="D24:F24" si="3">1/D23</f>
+        <f t="shared" ref="D24:F24" si="27">1/D23</f>
         <v>0.84482845651073568</v>
       </c>
       <c r="E24" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>2.9193206290455782</v>
       </c>
       <c r="F24" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>2.895711309844347</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="G24" s="29">
+        <f t="shared" ref="G24:H24" si="28">1/G23</f>
+        <v>2.8219289196364867</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="28"/>
+        <v>2.7508945354541114</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" ref="I24" si="29">1/I23</f>
+        <v>2.6284488542389064</v>
+      </c>
+      <c r="J24" s="29">
+        <f t="shared" ref="J24" si="30">1/J23</f>
+        <v>1.3656599417984885</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" ref="K24:L24" si="31">1/K23</f>
+        <v>2.525858713220662</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="31"/>
+        <v>2.5224437963070874</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24:N24" si="32">1/M23</f>
+        <v>2.9585740208573439</v>
+      </c>
+      <c r="N24" s="29">
+        <f t="shared" si="32"/>
+        <v>2.4534846659019003</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" ref="O24:P24" si="33">1/O23</f>
+        <v>6.1088261582084344</v>
+      </c>
+      <c r="P24" s="29">
+        <f t="shared" si="33"/>
+        <v>7.1585378913564037</v>
+      </c>
+      <c r="Q24" s="29">
+        <f t="shared" ref="Q24" si="34">1/Q23</f>
+        <v>2.5519992510273042</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1978,42 +6972,59 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>384</v>
+      </c>
+      <c r="D30">
+        <f>B30*2</f>
+        <v>768</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>512</v>
+      </c>
+      <c r="D31">
+        <f>B31*2</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="I29" t="s">
+      <c r="C32" t="s">
         <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="K17:K18"/>
+  <mergeCells count="55">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="B9:B10"/>
@@ -2029,8 +7040,715 @@
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C481CA-F4A1-4584-BB22-A6B6B25E59AB}">
+  <dimension ref="A2:S34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50000000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>1/A2</f>
+        <v>2E-8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1653070873</v>
+      </c>
+      <c r="E15" s="44">
+        <v>326511855</v>
+      </c>
+      <c r="F15" s="44">
+        <v>280494779</v>
+      </c>
+      <c r="G15" s="44">
+        <v>123435996</v>
+      </c>
+      <c r="H15" s="44">
+        <v>1049755323</v>
+      </c>
+      <c r="I15" s="44">
+        <v>984297678</v>
+      </c>
+      <c r="J15" s="44">
+        <v>89193198</v>
+      </c>
+      <c r="K15" s="44">
+        <v>57120869</v>
+      </c>
+      <c r="L15" s="44">
+        <v>17127872</v>
+      </c>
+      <c r="M15" s="44">
+        <v>16900625</v>
+      </c>
+      <c r="N15" s="44">
+        <v>8185165</v>
+      </c>
+      <c r="O15" s="44">
+        <v>7294746</v>
+      </c>
+      <c r="P15" s="44">
+        <v>19593168</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>7254321</v>
+      </c>
+      <c r="R15" s="44">
+        <v>6250312</v>
+      </c>
+      <c r="S15" s="44">
+        <v>85597229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="33">
+        <f>D15/(512*384)</f>
+        <v>8407.9532521565761</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" ref="E16:Q16" si="0">E15/(512*384)</f>
+        <v>1660.7251739501953</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="0"/>
+        <v>1426.6702219645183</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="0"/>
+        <v>627.82794189453125</v>
+      </c>
+      <c r="H16" s="33">
+        <f t="shared" si="0"/>
+        <v>5339.3316802978516</v>
+      </c>
+      <c r="I16" s="33">
+        <f t="shared" si="0"/>
+        <v>5006.3968811035156</v>
+      </c>
+      <c r="J16" s="33">
+        <f t="shared" si="0"/>
+        <v>453.66006469726563</v>
+      </c>
+      <c r="K16" s="33">
+        <f t="shared" si="0"/>
+        <v>290.53176371256512</v>
+      </c>
+      <c r="L16" s="33">
+        <f t="shared" si="0"/>
+        <v>87.116861979166671</v>
+      </c>
+      <c r="M16" s="33">
+        <f t="shared" si="0"/>
+        <v>85.961023966471359</v>
+      </c>
+      <c r="N16" s="33">
+        <f>N15/(512*384)</f>
+        <v>41.631902058919273</v>
+      </c>
+      <c r="O16" s="33">
+        <f>O15/(512*384)</f>
+        <v>37.102996826171875</v>
+      </c>
+      <c r="P16" s="33">
+        <f t="shared" si="0"/>
+        <v>99.656005859375</v>
+      </c>
+      <c r="Q16" s="33">
+        <f t="shared" si="0"/>
+        <v>36.897384643554688</v>
+      </c>
+      <c r="R16" s="33">
+        <f>R15/(512*384)</f>
+        <v>31.790730794270832</v>
+      </c>
+      <c r="S16" s="33">
+        <f t="shared" ref="S16" si="1">S15/(512*384)</f>
+        <v>435.37002054850262</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="34">
+        <f>$A$3*D15</f>
+        <v>33.061417460000001</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" ref="E17:Q17" si="2">$A$3*E15</f>
+        <v>6.5302370999999999</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" si="2"/>
+        <v>5.6098955799999999</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="2"/>
+        <v>2.4687199199999998</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="2"/>
+        <v>20.995106459999999</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="2"/>
+        <v>19.685953560000002</v>
+      </c>
+      <c r="J17" s="34">
+        <f t="shared" si="2"/>
+        <v>1.7838639600000001</v>
+      </c>
+      <c r="K17" s="34">
+        <f t="shared" si="2"/>
+        <v>1.1424173799999999</v>
+      </c>
+      <c r="L17" s="34">
+        <f t="shared" si="2"/>
+        <v>0.34255743999999999</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" si="2"/>
+        <v>0.33801249999999999</v>
+      </c>
+      <c r="N17" s="34">
+        <f t="shared" si="2"/>
+        <v>0.1637033</v>
+      </c>
+      <c r="O17" s="34">
+        <f>$A$3*O15</f>
+        <v>0.14589492000000001</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="2"/>
+        <v>0.39186335999999999</v>
+      </c>
+      <c r="Q17" s="34">
+        <f t="shared" si="2"/>
+        <v>0.14508641999999999</v>
+      </c>
+      <c r="R17" s="34">
+        <f>$A$3*R15</f>
+        <v>0.12500623999999999</v>
+      </c>
+      <c r="S17" s="34">
+        <f t="shared" ref="S17" si="3">$A$3*S15</f>
+        <v>1.7119445799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="40">
+        <f>1/D17</f>
+        <v>3.0246737037511153E-2</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" ref="E18:R18" si="4">1/E17</f>
+        <v>0.15313379662738433</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="4"/>
+        <v>0.17825643735065744</v>
+      </c>
+      <c r="G18" s="40">
+        <f t="shared" si="4"/>
+        <v>0.40506822661357228</v>
+      </c>
+      <c r="H18" s="40">
+        <f t="shared" si="4"/>
+        <v>4.7630146667996462E-2</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" si="4"/>
+        <v>5.0797640914479525E-2</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" si="4"/>
+        <v>0.56058086402507956</v>
+      </c>
+      <c r="K18" s="40">
+        <f t="shared" si="4"/>
+        <v>0.87533682304448135</v>
+      </c>
+      <c r="L18" s="40">
+        <f t="shared" si="4"/>
+        <v>2.9192184528235616</v>
+      </c>
+      <c r="M18" s="40">
+        <f t="shared" si="4"/>
+        <v>2.9584704707666138</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="4"/>
+        <v>6.1086123492928976</v>
+      </c>
+      <c r="O18" s="40">
+        <f t="shared" si="4"/>
+        <v>6.8542482493564538</v>
+      </c>
+      <c r="P18" s="40">
+        <f t="shared" si="4"/>
+        <v>2.5519099310535185</v>
+      </c>
+      <c r="Q18" s="40">
+        <f t="shared" si="4"/>
+        <v>6.8924438276166722</v>
+      </c>
+      <c r="R18" s="40">
+        <f t="shared" si="4"/>
+        <v>7.9996006599350569</v>
+      </c>
+      <c r="S18" s="40">
+        <f t="shared" ref="S18" si="5">1/S17</f>
+        <v>0.58413105872854831</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="23"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+      <c r="P20">
+        <v>19962920</v>
+      </c>
+      <c r="Q20">
+        <v>6368439</v>
+      </c>
+      <c r="R20">
+        <v>6250312</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>12770</v>
+      </c>
+      <c r="R21" s="44">
+        <v>6009623</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>J21</f>
+        <v>12770</v>
+      </c>
+      <c r="K23">
+        <f>J21</f>
+        <v>12770</v>
+      </c>
+      <c r="L23">
+        <f>J21</f>
+        <v>12770</v>
+      </c>
+      <c r="Q23">
+        <v>7254321</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f>_xlfn.BITRSHIFT(J23,11)</f>
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <f>_xlfn.BITRSHIFT(K23,5)</f>
+        <v>399</v>
+      </c>
+      <c r="L24">
+        <f>_xlfn.BITRSHIFT(L23,0)</f>
+        <v>12770</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <v>4000</v>
+      </c>
+      <c r="Q24">
+        <v>21250</v>
+      </c>
+      <c r="R24">
+        <v>21282</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <f>_xlfn.BITAND(J24,31)</f>
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <f>_xlfn.BITAND(K24,63)</f>
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="6">_xlfn.BITAND(L24,31)</f>
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>288</v>
+      </c>
+      <c r="P25">
+        <v>27144</v>
+      </c>
+      <c r="Q25">
+        <v>102672</v>
+      </c>
+      <c r="R25">
+        <v>102960</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f>_xlfn.BITLSHIFT(J25,3)</f>
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <f>_xlfn.BITLSHIFT(K25,2)</f>
+        <v>60</v>
+      </c>
+      <c r="L26">
+        <f>_xlfn.BITLSHIFT(L25,3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>J26*21</f>
+        <v>1008</v>
+      </c>
+      <c r="J27">
+        <f>J26*1197</f>
+        <v>57456</v>
+      </c>
+      <c r="K27">
+        <f>K26*72</f>
+        <v>4320</v>
+      </c>
+      <c r="L27">
+        <f>L26*7</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <f>SUM(I27,K27,L27)</f>
+        <v>5440</v>
+      </c>
+      <c r="K29">
+        <f>SUM(J27:L27)</f>
+        <v>61888</v>
+      </c>
+      <c r="L29">
+        <f>SUM(J27,K27)</f>
+        <v>61776</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <f>J29/100</f>
+        <v>54.4</v>
+      </c>
+      <c r="K30">
+        <f>K29/100</f>
+        <v>618.88</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>46250857</v>
+      </c>
+      <c r="G32">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <v>5117274</v>
+      </c>
+      <c r="G33">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34">
+        <v>4355330</v>
+      </c>
+      <c r="G34">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>